--- a/Documents/TestCase.xlsx
+++ b/Documents/TestCase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\butgi\OneDrive\Documents\GitHub\HRM\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\butgi\OneDrive\Documents\Human-resources-management\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B872D39B-378B-410F-B5B5-48CF30A0E31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A784D94-5058-4075-8B20-910A26C8A177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{EC22FD20-F67F-4011-B07E-B33A82BD11DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{EC22FD20-F67F-4011-B07E-B33A82BD11DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1114,6 +1114,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,112 +1213,25 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1555,46 +1555,46 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="2:11" ht="25.5">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+    </row>
+    <row r="5" spans="2:11" ht="26.4">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1770,11 +1770,11 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="2:11" ht="15.75">
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="2:11" ht="15.6">
+      <c r="B15" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1802,265 +1802,265 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="27" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="27" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="27" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="27" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="27" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="11.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="23" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="23" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" ht="26.4">
+      <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.9" customHeight="1">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:11" ht="28.95" customHeight="1">
+      <c r="A2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.9" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.95" customHeight="1">
+      <c r="A3" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-    </row>
-    <row r="4" spans="1:11" ht="28.9" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" ht="28.95" customHeight="1">
+      <c r="A4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-    </row>
-    <row r="6" spans="1:11" s="29" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" s="25" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2079,50 +2079,50 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" style="14" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="14" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="14"/>
+    <col min="2" max="2" width="20.109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" ht="26.4">
+      <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="27" t="s">
         <v>29</v>
       </c>
       <c r="J1" s="12"/>
@@ -2130,96 +2130,96 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="46.9" customHeight="1">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:11" ht="46.95" customHeight="1">
+      <c r="A2" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="28.9" customHeight="1">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:11" ht="28.95" customHeight="1">
+      <c r="A3" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" ht="28.9" customHeight="1">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:11" ht="28.95" customHeight="1">
+      <c r="A4" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="27.6" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" s="16" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="28" t="s">
         <v>239</v>
       </c>
       <c r="D6" s="13"/>
@@ -2227,7 +2227,7 @@
         <v>241</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="28" t="s">
         <v>240</v>
       </c>
       <c r="H6" s="13"/>
@@ -2235,41 +2235,41 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="28.15" customHeight="1">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:11" ht="28.2" customHeight="1">
+      <c r="A7" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="25.5">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:11" ht="26.4">
+      <c r="A8" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
@@ -2363,54 +2363,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D680EDE-AA57-4378-B03C-660FA1CA3342}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="14" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="11.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" ht="26.4">
+      <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="27" t="s">
         <v>29</v>
       </c>
       <c r="J1" s="12"/>
@@ -2418,278 +2418,278 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="46.9" customHeight="1">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:11" ht="46.95" customHeight="1">
+      <c r="A2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="28.9" customHeight="1">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:11" ht="28.95" customHeight="1">
+      <c r="A3" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" ht="28.9" customHeight="1">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:11" ht="28.95" customHeight="1">
+      <c r="A4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:11" ht="47.45" customHeight="1">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:11" ht="47.4" customHeight="1">
+      <c r="A5" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" s="16" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:11" s="16" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A6" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" ht="28.15" customHeight="1">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:11" ht="28.2" customHeight="1">
+      <c r="A7" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" ht="25.5">
-      <c r="A8" s="32" t="s">
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" ht="26.4">
+      <c r="A8" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="25.5">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:11" ht="26.4">
+      <c r="A9" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="32" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="45" customHeight="1">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="38" t="s">
+      <c r="D10" s="34"/>
+      <c r="E10" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38" t="s">
+      <c r="F10" s="32"/>
+      <c r="G10" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="1:11" ht="25.5">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:11" ht="26.4">
+      <c r="A11" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="1:11" ht="51">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:11" ht="52.8">
+      <c r="A12" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="25.5">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:11" ht="26.4">
+      <c r="A13" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:11" ht="25.5">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:11" ht="26.4">
+      <c r="A14" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
@@ -2710,255 +2710,255 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="36" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="36" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="36" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="36" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="36" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="36"/>
+    <col min="1" max="1" width="11.6640625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="30" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="30" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="30" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="30" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" ht="26.4">
+      <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="48" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="46.9" customHeight="1">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:11" ht="46.95" customHeight="1">
+      <c r="A2" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.9" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.95" customHeight="1">
+      <c r="A3" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="1:11" ht="44.45" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" ht="44.4" customHeight="1">
+      <c r="A4" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="46.5" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>109</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="1:11" s="32" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="1:11" s="28" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A6" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="G6" s="32" t="s">
+      <c r="D6" s="36"/>
+      <c r="G6" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.15" customHeight="1">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:11" ht="28.2" customHeight="1">
+      <c r="A7" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-    </row>
-    <row r="8" spans="1:11" ht="38.25">
-      <c r="A8" s="32" t="s">
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:11" ht="39.6">
+      <c r="A8" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="38" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="45" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="46"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
+      <c r="A11" s="39"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="46"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
+      <c r="A12" s="39"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2977,458 +2977,458 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="36" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="36" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="36" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="36" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="36" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="36"/>
+    <col min="1" max="1" width="11.6640625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="30" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="30" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="30" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="30" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" ht="26.4">
+      <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="48" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" ht="34.5" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-    </row>
-    <row r="6" spans="1:11" s="46" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="1:11" s="39" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A6" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-    </row>
-    <row r="7" spans="1:11" ht="38.450000000000003" customHeight="1">
-      <c r="A7" s="52" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="1:11" ht="38.4" customHeight="1">
+      <c r="A7" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="1:11" s="46" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:11" s="39" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A9" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-    </row>
-    <row r="10" spans="1:11" ht="38.25">
-      <c r="A10" s="32" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+    </row>
+    <row r="10" spans="1:11" ht="39.6">
+      <c r="A10" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-    </row>
-    <row r="11" spans="1:11" ht="25.5">
-      <c r="A11" s="32" t="s">
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="1:11" ht="26.4">
+      <c r="A11" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="1:11" ht="20.25" customHeight="1"/>
     <row r="13" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="56"/>
+      <c r="C14" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32" t="s">
+      <c r="F17" s="28"/>
+      <c r="G17" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44" t="s">
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" spans="1:11" ht="38.450000000000003" customHeight="1">
-      <c r="A21" s="44" t="s">
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+    </row>
+    <row r="21" spans="1:11" ht="38.4" customHeight="1">
+      <c r="A21" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3450,50 +3450,50 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="14" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="11.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" ht="26.4">
+      <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="27" t="s">
         <v>29</v>
       </c>
       <c r="J1" s="12"/>
@@ -3502,203 +3502,203 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="33.75" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="36.75" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" s="16" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="36" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="35.25" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="46"/>
+      <c r="A11" s="39"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="46"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:11">
       <c r="H13" s="16"/>
@@ -3723,25 +3723,25 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="14" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="11.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5">
+    <row r="1" spans="1:11" ht="27.6">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -3778,62 +3778,62 @@
       <c r="A2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="28.9" customHeight="1">
+    <row r="3" spans="1:11" ht="28.95" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:11" ht="44.45" customHeight="1">
+    <row r="4" spans="1:11" ht="44.4" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
@@ -3841,43 +3841,43 @@
       <c r="A5" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" s="16" customFormat="1" ht="28.15" customHeight="1">
+    <row r="6" spans="1:11" s="16" customFormat="1" ht="28.2" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
@@ -3885,20 +3885,20 @@
       <c r="A7" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
@@ -3906,37 +3906,37 @@
       <c r="A8" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="31.15" customHeight="1">
+    <row r="9" spans="1:11" ht="31.2" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
@@ -3944,25 +3944,25 @@
       <c r="A10" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="16"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -3975,7 +3975,7 @@
     <row r="12" spans="1:11">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="23"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -4004,54 +4004,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E268F85F-36C9-4AD5-8C20-207C22DA4020}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="14" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="11.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="14" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:14" ht="26.4">
+      <c r="A1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="27" t="s">
         <v>29</v>
       </c>
       <c r="J1" s="12"/>
@@ -4060,97 +4060,97 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="34.5" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="36"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:14" ht="28.9" customHeight="1">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:14" ht="28.95" customHeight="1">
+      <c r="A3" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="32" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="39.75" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:14" s="16" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -4161,30 +4161,30 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:14" ht="40.5" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
         <v>113</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="32"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:14" ht="30">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:14" ht="28.8">
+      <c r="A8" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -4202,22 +4202,22 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:14" ht="31.15" customHeight="1">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:14" ht="31.2" customHeight="1">
+      <c r="A9" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="16"/>
@@ -4225,22 +4225,22 @@
       <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A10" s="46"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="46"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4255,7 +4255,7 @@
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="46"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
